--- a/Code/Results/Cases/Case_1_202/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_202/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9872610532177465</v>
+        <v>1.021596613382186</v>
       </c>
       <c r="D2">
-        <v>1.023856896101534</v>
+        <v>1.029479468168048</v>
       </c>
       <c r="E2">
-        <v>0.9954265363176367</v>
+        <v>1.022447485649909</v>
       </c>
       <c r="F2">
-        <v>0.9634267132061753</v>
+        <v>1.020030238003467</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039939664420499</v>
+        <v>1.031460032946297</v>
       </c>
       <c r="J2">
-        <v>1.009829576630779</v>
+        <v>1.026787187609181</v>
       </c>
       <c r="K2">
-        <v>1.034993578150906</v>
+        <v>1.032293259289666</v>
       </c>
       <c r="L2">
-        <v>1.006949956634645</v>
+        <v>1.025281839128513</v>
       </c>
       <c r="M2">
-        <v>0.9754202341322402</v>
+        <v>1.022871731065522</v>
       </c>
       <c r="N2">
-        <v>1.011263650458666</v>
+        <v>1.028245343189724</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.992006813905272</v>
+        <v>1.022572303617348</v>
       </c>
       <c r="D3">
-        <v>1.026071200643279</v>
+        <v>1.029943028407246</v>
       </c>
       <c r="E3">
-        <v>0.9992182832670798</v>
+        <v>1.023276204496457</v>
       </c>
       <c r="F3">
-        <v>0.9709312031419199</v>
+        <v>1.021644933153752</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040942645597466</v>
+        <v>1.031611535565965</v>
       </c>
       <c r="J3">
-        <v>1.012717778681598</v>
+        <v>1.027400428603253</v>
       </c>
       <c r="K3">
-        <v>1.03638101858572</v>
+        <v>1.03256590163614</v>
       </c>
       <c r="L3">
-        <v>1.009861176085982</v>
+        <v>1.02591716585047</v>
       </c>
       <c r="M3">
-        <v>0.9819500509261651</v>
+        <v>1.024290359326969</v>
       </c>
       <c r="N3">
-        <v>1.014155954087678</v>
+        <v>1.028859455056346</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9950058935060314</v>
+        <v>1.023203531793888</v>
       </c>
       <c r="D4">
-        <v>1.027477400188467</v>
+        <v>1.030243103508403</v>
       </c>
       <c r="E4">
-        <v>1.001620483302053</v>
+        <v>1.023812723748472</v>
       </c>
       <c r="F4">
-        <v>0.97565922509155</v>
+        <v>1.022689537233725</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041567338501779</v>
+        <v>1.031708358163379</v>
       </c>
       <c r="J4">
-        <v>1.014538217557747</v>
+        <v>1.027796555992132</v>
       </c>
       <c r="K4">
-        <v>1.037255133059629</v>
+        <v>1.03274171451911</v>
       </c>
       <c r="L4">
-        <v>1.011699389785566</v>
+        <v>1.026327904619073</v>
       </c>
       <c r="M4">
-        <v>0.9860605789200266</v>
+        <v>1.025207635412995</v>
       </c>
       <c r="N4">
-        <v>1.015978978195839</v>
+        <v>1.029256144991554</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9962502522803469</v>
+        <v>1.023468874744357</v>
       </c>
       <c r="D5">
-        <v>1.028062378062801</v>
+        <v>1.030369282598172</v>
       </c>
       <c r="E5">
-        <v>1.002618585909947</v>
+        <v>1.024038344088202</v>
       </c>
       <c r="F5">
-        <v>0.9776179263104667</v>
+        <v>1.023128644410596</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041824292496949</v>
+        <v>1.031748772546693</v>
       </c>
       <c r="J5">
-        <v>1.015292389642369</v>
+        <v>1.027962925412578</v>
       </c>
       <c r="K5">
-        <v>1.037617098694995</v>
+        <v>1.032815480706571</v>
       </c>
       <c r="L5">
-        <v>1.0124616996752</v>
+        <v>1.026500493171662</v>
       </c>
       <c r="M5">
-        <v>0.9877626085128756</v>
+        <v>1.025593102989395</v>
       </c>
       <c r="N5">
-        <v>1.016734221291326</v>
+        <v>1.029422750675659</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9964582408224114</v>
+        <v>1.02351342552372</v>
       </c>
       <c r="D6">
-        <v>1.028160240579111</v>
+        <v>1.030390470196415</v>
       </c>
       <c r="E6">
-        <v>1.00278549481869</v>
+        <v>1.02407623070145</v>
       </c>
       <c r="F6">
-        <v>0.97794514849545</v>
+        <v>1.023202370017978</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041867108103292</v>
+        <v>1.031755541296742</v>
       </c>
       <c r="J6">
-        <v>1.015418377743038</v>
+        <v>1.027990850050481</v>
       </c>
       <c r="K6">
-        <v>1.037677555277706</v>
+        <v>1.032827857817872</v>
       </c>
       <c r="L6">
-        <v>1.012589092488789</v>
+        <v>1.02652946650972</v>
       </c>
       <c r="M6">
-        <v>0.9880468993588656</v>
+        <v>1.02565781574233</v>
       </c>
       <c r="N6">
-        <v>1.016860388309549</v>
+        <v>1.029450714969751</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9950225844221494</v>
+        <v>1.023207077418299</v>
       </c>
       <c r="D7">
-        <v>1.027485240775858</v>
+        <v>1.030244789413186</v>
       </c>
       <c r="E7">
-        <v>1.00163386565281</v>
+        <v>1.023815738232763</v>
       </c>
       <c r="F7">
-        <v>0.9756855090463015</v>
+        <v>1.022695404771876</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04157079400748</v>
+        <v>1.031708899321492</v>
       </c>
       <c r="J7">
-        <v>1.014548338040636</v>
+        <v>1.027798779666648</v>
       </c>
       <c r="K7">
-        <v>1.037259991128469</v>
+        <v>1.032742700759343</v>
       </c>
       <c r="L7">
-        <v>1.011709616422932</v>
+        <v>1.026330211093568</v>
       </c>
       <c r="M7">
-        <v>0.9860834220258198</v>
+        <v>1.025212786653089</v>
       </c>
       <c r="N7">
-        <v>1.015989113050975</v>
+        <v>1.029258371823942</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9888802101555753</v>
+        <v>1.021926375345831</v>
       </c>
       <c r="D8">
-        <v>1.024610851348531</v>
+        <v>1.029636104728316</v>
       </c>
       <c r="E8">
-        <v>0.996718912765345</v>
+        <v>1.022727496496734</v>
       </c>
       <c r="F8">
-        <v>0.9659904091115289</v>
+        <v>1.020575979404959</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040283753100177</v>
+        <v>1.031511484313389</v>
       </c>
       <c r="J8">
-        <v>1.010815965764066</v>
+        <v>1.026994576420683</v>
       </c>
       <c r="K8">
-        <v>1.035467461143149</v>
+        <v>1.032385524872062</v>
       </c>
       <c r="L8">
-        <v>1.007943512661715</v>
+        <v>1.025496625443229</v>
       </c>
       <c r="M8">
-        <v>0.9776516578055733</v>
+        <v>1.023351305377662</v>
       </c>
       <c r="N8">
-        <v>1.012251440377663</v>
+        <v>1.028453026517124</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9774720280594054</v>
+        <v>1.019668753426308</v>
       </c>
       <c r="D9">
-        <v>1.019333342882123</v>
+        <v>1.028564508175388</v>
       </c>
       <c r="E9">
-        <v>0.9876407435578904</v>
+        <v>1.020812042057225</v>
       </c>
       <c r="F9">
-        <v>0.9478451252982216</v>
+        <v>1.016839378267776</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037822316445862</v>
+        <v>1.031154358484228</v>
       </c>
       <c r="J9">
-        <v>1.003846180523196</v>
+        <v>1.025572237392057</v>
       </c>
       <c r="K9">
-        <v>1.032120348633761</v>
+        <v>1.031751533805329</v>
       </c>
       <c r="L9">
-        <v>1.00093757516937</v>
+        <v>1.024024974153781</v>
       </c>
       <c r="M9">
-        <v>0.9618451304280019</v>
+        <v>1.020065754045933</v>
       </c>
       <c r="N9">
-        <v>1.005271757242306</v>
+        <v>1.027028667603933</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9694199827293525</v>
+        <v>1.018163049409088</v>
       </c>
       <c r="D10">
-        <v>1.015658926267371</v>
+        <v>1.027850851831494</v>
       </c>
       <c r="E10">
-        <v>0.9812707243268065</v>
+        <v>1.019536527405738</v>
       </c>
       <c r="F10">
-        <v>0.9349070460044018</v>
+        <v>1.014346636514582</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036039942450956</v>
+        <v>1.030910064015975</v>
       </c>
       <c r="J10">
-        <v>0.9989017027276763</v>
+        <v>1.024620467346704</v>
       </c>
       <c r="K10">
-        <v>1.029751094837627</v>
+        <v>1.031325821274979</v>
       </c>
       <c r="L10">
-        <v>0.9959865810250939</v>
+        <v>1.023041998053098</v>
       </c>
       <c r="M10">
-        <v>0.9505602064648366</v>
+        <v>1.017871426868625</v>
       </c>
       <c r="N10">
-        <v>1.000320257721176</v>
+        <v>1.026075545935946</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9658139411899459</v>
+        <v>1.017510904588817</v>
       </c>
       <c r="D11">
-        <v>1.014027546203788</v>
+        <v>1.027542023313583</v>
       </c>
       <c r="E11">
-        <v>0.9784276488256757</v>
+        <v>1.018984559223466</v>
       </c>
       <c r="F11">
-        <v>0.9290721073942539</v>
+        <v>1.013266766523025</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035231751654205</v>
+        <v>1.030802811017418</v>
       </c>
       <c r="J11">
-        <v>0.9966814524995355</v>
+        <v>1.024207492941855</v>
       </c>
       <c r="K11">
-        <v>1.028689684904559</v>
+        <v>1.031140767831423</v>
       </c>
       <c r="L11">
-        <v>0.9937681864818031</v>
+        <v>1.022615909658112</v>
       </c>
       <c r="M11">
-        <v>0.945468186348173</v>
+        <v>1.016920243791751</v>
       </c>
       <c r="N11">
-        <v>0.9980968544830454</v>
+        <v>1.025661985060073</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9644552641837864</v>
+        <v>1.01726864314521</v>
       </c>
       <c r="D12">
-        <v>1.013415207406837</v>
+        <v>1.027427340442024</v>
       </c>
       <c r="E12">
-        <v>0.9773579667557206</v>
+        <v>1.018779584238594</v>
       </c>
       <c r="F12">
-        <v>0.926866564196167</v>
+        <v>1.012865572504695</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034925809456109</v>
+        <v>1.030762751480388</v>
       </c>
       <c r="J12">
-        <v>0.9958440239519787</v>
+        <v>1.02405396722269</v>
       </c>
       <c r="K12">
-        <v>1.028289828574244</v>
+        <v>1.031071923672715</v>
       </c>
       <c r="L12">
-        <v>0.992932199879739</v>
+        <v>1.022457572918018</v>
       </c>
       <c r="M12">
-        <v>0.9435431391906515</v>
+        <v>1.016566771449789</v>
       </c>
       <c r="N12">
-        <v>0.9972582366908965</v>
+        <v>1.025508241316778</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.964747597420061</v>
+        <v>1.017320610232215</v>
       </c>
       <c r="D13">
-        <v>1.013546849819026</v>
+        <v>1.027451938937831</v>
       </c>
       <c r="E13">
-        <v>0.9775880496736852</v>
+        <v>1.018823549783663</v>
       </c>
       <c r="F13">
-        <v>0.9273414450214877</v>
+        <v>1.012951633827449</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034991699740152</v>
+        <v>1.030771354385538</v>
       </c>
       <c r="J13">
-        <v>0.9960242453632717</v>
+        <v>1.024086904842733</v>
       </c>
       <c r="K13">
-        <v>1.028375857168192</v>
+        <v>1.031086695812963</v>
       </c>
       <c r="L13">
-        <v>0.9931120770558729</v>
+        <v>1.022491539794956</v>
       </c>
       <c r="M13">
-        <v>0.9439576388021341</v>
+        <v>1.01664259984082</v>
       </c>
       <c r="N13">
-        <v>0.9974387140372651</v>
+        <v>1.025541225712019</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9657020327672006</v>
+        <v>1.017490879715002</v>
       </c>
       <c r="D14">
-        <v>1.013977061975108</v>
+        <v>1.027532542976233</v>
       </c>
       <c r="E14">
-        <v>0.9783395122659165</v>
+        <v>1.018967614896869</v>
       </c>
       <c r="F14">
-        <v>0.9288905956234568</v>
+        <v>1.013233605422003</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035206581240079</v>
+        <v>1.030799504191106</v>
       </c>
       <c r="J14">
-        <v>0.9966124951156187</v>
+        <v>1.024194805086146</v>
       </c>
       <c r="K14">
-        <v>1.028656748560602</v>
+        <v>1.031135079332154</v>
       </c>
       <c r="L14">
-        <v>0.9936993326234227</v>
+        <v>1.022602822894536</v>
       </c>
       <c r="M14">
-        <v>0.9453097648334536</v>
+        <v>1.016891028972161</v>
       </c>
       <c r="N14">
-        <v>0.9980277991717338</v>
+        <v>1.025649279186154</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.966287502685476</v>
+        <v>1.017595784910684</v>
       </c>
       <c r="D15">
-        <v>1.014241275753748</v>
+        <v>1.027582209771906</v>
       </c>
       <c r="E15">
-        <v>0.9788006777941485</v>
+        <v>1.019056384862768</v>
       </c>
       <c r="F15">
-        <v>0.929839914822463</v>
+        <v>1.013407326302947</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035338206996096</v>
+        <v>1.030816818935021</v>
       </c>
       <c r="J15">
-        <v>0.9969732224801371</v>
+        <v>1.024261268921065</v>
       </c>
       <c r="K15">
-        <v>1.028829064341986</v>
+        <v>1.031164875847183</v>
       </c>
       <c r="L15">
-        <v>0.9940595487774504</v>
+        <v>1.022671378989599</v>
       </c>
       <c r="M15">
-        <v>0.9461383078942724</v>
+        <v>1.017044072880349</v>
       </c>
       <c r="N15">
-        <v>0.9983890388104858</v>
+        <v>1.025715837407342</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9696566802338359</v>
+        <v>1.018206326548456</v>
       </c>
       <c r="D16">
-        <v>1.015766319840082</v>
+        <v>1.027871351867707</v>
       </c>
       <c r="E16">
-        <v>0.9814575485922671</v>
+        <v>1.019573166820676</v>
       </c>
       <c r="F16">
-        <v>0.935289122688267</v>
+        <v>1.014418292819574</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036092789537463</v>
+        <v>1.030917151045044</v>
       </c>
       <c r="J16">
-        <v>0.9990473154000675</v>
+        <v>1.024647857095774</v>
       </c>
       <c r="K16">
-        <v>1.029820766838007</v>
+        <v>1.03133808761101</v>
       </c>
       <c r="L16">
-        <v>0.9961321732058364</v>
+        <v>1.023070266549458</v>
       </c>
       <c r="M16">
-        <v>0.9508935878503122</v>
+        <v>1.017934531599075</v>
       </c>
       <c r="N16">
-        <v>1.000466077180264</v>
+        <v>1.026102974581602</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9717372271186731</v>
+        <v>1.018589258280126</v>
       </c>
       <c r="D17">
-        <v>1.016711930013869</v>
+        <v>1.028052774717431</v>
       </c>
       <c r="E17">
-        <v>0.9831008220670538</v>
+        <v>1.019897420852446</v>
       </c>
       <c r="F17">
-        <v>0.938642814559031</v>
+        <v>1.015052307128846</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036556186292349</v>
+        <v>1.030979692759064</v>
       </c>
       <c r="J17">
-        <v>1.000326566130561</v>
+        <v>1.024890125144328</v>
       </c>
       <c r="K17">
-        <v>1.030433148990345</v>
+        <v>1.031446547256959</v>
       </c>
       <c r="L17">
-        <v>0.9974117883344601</v>
+        <v>1.023320356518564</v>
       </c>
       <c r="M17">
-        <v>0.9538195651807508</v>
+        <v>1.018492813769024</v>
       </c>
       <c r="N17">
-        <v>1.001747144593528</v>
+        <v>1.026345586678573</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9729393428810706</v>
+        <v>1.018812600025284</v>
       </c>
       <c r="D18">
-        <v>1.017259619386498</v>
+        <v>1.028158613780402</v>
       </c>
       <c r="E18">
-        <v>0.9840511972460629</v>
+        <v>1.020086585378143</v>
       </c>
       <c r="F18">
-        <v>0.9405767555552614</v>
+        <v>1.015422069571934</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036822984556071</v>
+        <v>1.031016030258534</v>
       </c>
       <c r="J18">
-        <v>1.001065143938046</v>
+        <v>1.0250313538681</v>
       </c>
       <c r="K18">
-        <v>1.030786934548778</v>
+        <v>1.031509740698463</v>
       </c>
       <c r="L18">
-        <v>0.9981510262840436</v>
+        <v>1.023466186063758</v>
       </c>
       <c r="M18">
-        <v>0.9555066064163217</v>
+        <v>1.018818351867709</v>
       </c>
       <c r="N18">
-        <v>1.002486771266215</v>
+        <v>1.026487015963333</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9733473311992499</v>
+        <v>1.018888751130427</v>
       </c>
       <c r="D19">
-        <v>1.01744572005668</v>
+        <v>1.028194705209256</v>
       </c>
       <c r="E19">
-        <v>0.9843738993165801</v>
+        <v>1.020151091134882</v>
       </c>
       <c r="F19">
-        <v>0.941232503985553</v>
+        <v>1.015548141205737</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03691337122034</v>
+        <v>1.031028396312874</v>
       </c>
       <c r="J19">
-        <v>1.001315716460287</v>
+        <v>1.025079495303101</v>
       </c>
       <c r="K19">
-        <v>1.030906996143874</v>
+        <v>1.031531276265104</v>
       </c>
       <c r="L19">
-        <v>0.9984018984034306</v>
+        <v>1.023515902770692</v>
       </c>
       <c r="M19">
-        <v>0.9560785924587345</v>
+        <v>1.018929335449291</v>
       </c>
       <c r="N19">
-        <v>1.002737699630178</v>
+        <v>1.026535225764693</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9715151954807631</v>
+        <v>1.018548174976512</v>
       </c>
       <c r="D20">
-        <v>1.016610877347028</v>
+        <v>1.028033307872057</v>
       </c>
       <c r="E20">
-        <v>0.98292536028244</v>
+        <v>1.019862628089383</v>
       </c>
       <c r="F20">
-        <v>0.9382853146257745</v>
+        <v>1.014984288348547</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03650683141601</v>
+        <v>1.030972997314243</v>
       </c>
       <c r="J20">
-        <v>1.000190105103917</v>
+        <v>1.024864140575365</v>
       </c>
       <c r="K20">
-        <v>1.030367800385409</v>
+        <v>1.031434917719843</v>
       </c>
       <c r="L20">
-        <v>0.9972752415739806</v>
+        <v>1.023293528755111</v>
       </c>
       <c r="M20">
-        <v>0.9535076850015028</v>
+        <v>1.018432925605443</v>
       </c>
       <c r="N20">
-        <v>1.001610489776573</v>
+        <v>1.026319565208542</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9654215172480632</v>
+        <v>1.01744074031722</v>
       </c>
       <c r="D21">
-        <v>1.013850553758898</v>
+        <v>1.027508806262876</v>
       </c>
       <c r="E21">
-        <v>0.9781186093612121</v>
+        <v>1.018925189917459</v>
       </c>
       <c r="F21">
-        <v>0.9284354914967828</v>
+        <v>1.013150574146714</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035143464902838</v>
+        <v>1.03079122087453</v>
       </c>
       <c r="J21">
-        <v>0.9964396286339805</v>
+        <v>1.024163034710331</v>
       </c>
       <c r="K21">
-        <v>1.028574189950292</v>
+        <v>1.031120834542016</v>
       </c>
       <c r="L21">
-        <v>0.9935267376934189</v>
+        <v>1.02257005469096</v>
       </c>
       <c r="M21">
-        <v>0.9449125500100993</v>
+        <v>1.016817877271399</v>
       </c>
       <c r="N21">
-        <v>0.9978546871998638</v>
+        <v>1.025617463692762</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9614781694949388</v>
+        <v>1.016744302289714</v>
       </c>
       <c r="D22">
-        <v>1.012077987796062</v>
+        <v>1.027179204296788</v>
       </c>
       <c r="E22">
-        <v>0.9750170009429685</v>
+        <v>1.018336077824564</v>
       </c>
       <c r="F22">
-        <v>0.9220196713538784</v>
+        <v>1.011997165721287</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034252871142684</v>
+        <v>1.03067565225158</v>
       </c>
       <c r="J22">
-        <v>0.9940074374981035</v>
+        <v>1.023721477026349</v>
       </c>
       <c r="K22">
-        <v>1.027413915388674</v>
+        <v>1.030922738832308</v>
       </c>
       <c r="L22">
-        <v>0.9911001711937116</v>
+        <v>1.022114781064001</v>
       </c>
       <c r="M22">
-        <v>0.9393121689309357</v>
+        <v>1.015801499828277</v>
       </c>
       <c r="N22">
-        <v>0.9954190420735973</v>
+        <v>1.025175278946221</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9635796948451749</v>
+        <v>1.017113511818647</v>
       </c>
       <c r="D23">
-        <v>1.013021281714308</v>
+        <v>1.027353915692083</v>
       </c>
       <c r="E23">
-        <v>0.976669073120333</v>
+        <v>1.018648349642043</v>
       </c>
       <c r="F23">
-        <v>0.9254431296572753</v>
+        <v>1.012608657369169</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034728255949739</v>
+        <v>1.030737038513435</v>
       </c>
       <c r="J23">
-        <v>0.9953041112979846</v>
+        <v>1.023955625918058</v>
       </c>
       <c r="K23">
-        <v>1.028032181540107</v>
+        <v>1.031027811583276</v>
       </c>
       <c r="L23">
-        <v>0.9923934292311126</v>
+        <v>1.022356167986658</v>
       </c>
       <c r="M23">
-        <v>0.9423006544082551</v>
+        <v>1.016340391344133</v>
       </c>
       <c r="N23">
-        <v>0.9967175572990049</v>
+        <v>1.025409760356214</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9716155572543803</v>
+        <v>1.018566738801646</v>
       </c>
       <c r="D24">
-        <v>1.016656550631524</v>
+        <v>1.028042104045498</v>
       </c>
       <c r="E24">
-        <v>0.9830046689330401</v>
+        <v>1.019878349340357</v>
       </c>
       <c r="F24">
-        <v>0.9384469218557304</v>
+        <v>1.015015023252148</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036529143535132</v>
+        <v>1.030976023136355</v>
       </c>
       <c r="J24">
-        <v>1.000251789355137</v>
+        <v>1.024875882137098</v>
       </c>
       <c r="K24">
-        <v>1.030397339115049</v>
+        <v>1.031440172821051</v>
       </c>
       <c r="L24">
-        <v>0.9973369631851988</v>
+        <v>1.023305651201454</v>
       </c>
       <c r="M24">
-        <v>0.953648670693753</v>
+        <v>1.018459986791335</v>
       </c>
       <c r="N24">
-        <v>1.001672261626505</v>
+        <v>1.02633132344464</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9804958135269166</v>
+        <v>1.020252509340196</v>
       </c>
       <c r="D25">
-        <v>1.020724179293635</v>
+        <v>1.028841416721748</v>
       </c>
       <c r="E25">
-        <v>0.9900407676788744</v>
+        <v>1.021306976334835</v>
       </c>
       <c r="F25">
-        <v>0.9526741992675697</v>
+        <v>1.017805645294668</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038482690065809</v>
+        <v>1.031247779612939</v>
       </c>
       <c r="J25">
-        <v>1.005697884382887</v>
+        <v>1.025940568734609</v>
       </c>
       <c r="K25">
-        <v>1.033009077235566</v>
+        <v>1.031915976648548</v>
       </c>
       <c r="L25">
-        <v>1.002795680700066</v>
+        <v>1.024405760686095</v>
       </c>
       <c r="M25">
-        <v>0.9660544812607826</v>
+        <v>1.020915820721069</v>
       </c>
       <c r="N25">
-        <v>1.00712609073387</v>
+        <v>1.02739752201924</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_202/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_202/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.021596613382186</v>
+        <v>0.9872610532177458</v>
       </c>
       <c r="D2">
-        <v>1.029479468168048</v>
+        <v>1.023856896101534</v>
       </c>
       <c r="E2">
-        <v>1.022447485649909</v>
+        <v>0.995426536317636</v>
       </c>
       <c r="F2">
-        <v>1.020030238003467</v>
+        <v>0.9634267132061746</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031460032946297</v>
+        <v>1.039939664420498</v>
       </c>
       <c r="J2">
-        <v>1.026787187609181</v>
+        <v>1.009829576630778</v>
       </c>
       <c r="K2">
-        <v>1.032293259289666</v>
+        <v>1.034993578150906</v>
       </c>
       <c r="L2">
-        <v>1.025281839128513</v>
+        <v>1.006949956634644</v>
       </c>
       <c r="M2">
-        <v>1.022871731065522</v>
+        <v>0.9754202341322395</v>
       </c>
       <c r="N2">
-        <v>1.028245343189724</v>
+        <v>1.011263650458665</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.022572303617348</v>
+        <v>0.9920068139052707</v>
       </c>
       <c r="D3">
-        <v>1.029943028407246</v>
+        <v>1.026071200643279</v>
       </c>
       <c r="E3">
-        <v>1.023276204496457</v>
+        <v>0.9992182832670782</v>
       </c>
       <c r="F3">
-        <v>1.021644933153752</v>
+        <v>0.9709312031419184</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031611535565965</v>
+        <v>1.040942645597465</v>
       </c>
       <c r="J3">
-        <v>1.027400428603253</v>
+        <v>1.012717778681596</v>
       </c>
       <c r="K3">
-        <v>1.03256590163614</v>
+        <v>1.03638101858572</v>
       </c>
       <c r="L3">
-        <v>1.02591716585047</v>
+        <v>1.00986117608598</v>
       </c>
       <c r="M3">
-        <v>1.024290359326969</v>
+        <v>0.9819500509261634</v>
       </c>
       <c r="N3">
-        <v>1.028859455056346</v>
+        <v>1.014155954087677</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.023203531793888</v>
+        <v>0.9950058935060302</v>
       </c>
       <c r="D4">
-        <v>1.030243103508403</v>
+        <v>1.027477400188466</v>
       </c>
       <c r="E4">
-        <v>1.023812723748472</v>
+        <v>1.001620483302052</v>
       </c>
       <c r="F4">
-        <v>1.022689537233725</v>
+        <v>0.9756592250915485</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031708358163379</v>
+        <v>1.041567338501779</v>
       </c>
       <c r="J4">
-        <v>1.027796555992132</v>
+        <v>1.014538217557746</v>
       </c>
       <c r="K4">
-        <v>1.03274171451911</v>
+        <v>1.037255133059628</v>
       </c>
       <c r="L4">
-        <v>1.026327904619073</v>
+        <v>1.011699389785565</v>
       </c>
       <c r="M4">
-        <v>1.025207635412995</v>
+        <v>0.9860605789200252</v>
       </c>
       <c r="N4">
-        <v>1.029256144991554</v>
+        <v>1.015978978195838</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023468874744357</v>
+        <v>0.9962502522803464</v>
       </c>
       <c r="D5">
-        <v>1.030369282598172</v>
+        <v>1.028062378062801</v>
       </c>
       <c r="E5">
-        <v>1.024038344088202</v>
+        <v>1.002618585909946</v>
       </c>
       <c r="F5">
-        <v>1.023128644410596</v>
+        <v>0.9776179263104662</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031748772546693</v>
+        <v>1.041824292496949</v>
       </c>
       <c r="J5">
-        <v>1.027962925412578</v>
+        <v>1.015292389642369</v>
       </c>
       <c r="K5">
-        <v>1.032815480706571</v>
+        <v>1.037617098694995</v>
       </c>
       <c r="L5">
-        <v>1.026500493171662</v>
+        <v>1.012461699675199</v>
       </c>
       <c r="M5">
-        <v>1.025593102989395</v>
+        <v>0.9877626085128749</v>
       </c>
       <c r="N5">
-        <v>1.029422750675659</v>
+        <v>1.016734221291326</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.02351342552372</v>
+        <v>0.9964582408224109</v>
       </c>
       <c r="D6">
-        <v>1.030390470196415</v>
+        <v>1.02816024057911</v>
       </c>
       <c r="E6">
-        <v>1.02407623070145</v>
+        <v>1.002785494818689</v>
       </c>
       <c r="F6">
-        <v>1.023202370017978</v>
+        <v>0.9779451484954494</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031755541296742</v>
+        <v>1.041867108103292</v>
       </c>
       <c r="J6">
-        <v>1.027990850050481</v>
+        <v>1.015418377743038</v>
       </c>
       <c r="K6">
-        <v>1.032827857817872</v>
+        <v>1.037677555277706</v>
       </c>
       <c r="L6">
-        <v>1.02652946650972</v>
+        <v>1.012589092488789</v>
       </c>
       <c r="M6">
-        <v>1.02565781574233</v>
+        <v>0.988046899358865</v>
       </c>
       <c r="N6">
-        <v>1.029450714969751</v>
+        <v>1.016860388309549</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.023207077418299</v>
+        <v>0.9950225844221486</v>
       </c>
       <c r="D7">
-        <v>1.030244789413186</v>
+        <v>1.027485240775857</v>
       </c>
       <c r="E7">
-        <v>1.023815738232763</v>
+        <v>1.001633865652809</v>
       </c>
       <c r="F7">
-        <v>1.022695404771876</v>
+        <v>0.9756855090463004</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031708899321492</v>
+        <v>1.04157079400748</v>
       </c>
       <c r="J7">
-        <v>1.027798779666648</v>
+        <v>1.014548338040635</v>
       </c>
       <c r="K7">
-        <v>1.032742700759343</v>
+        <v>1.037259991128469</v>
       </c>
       <c r="L7">
-        <v>1.026330211093568</v>
+        <v>1.011709616422931</v>
       </c>
       <c r="M7">
-        <v>1.025212786653089</v>
+        <v>0.9860834220258187</v>
       </c>
       <c r="N7">
-        <v>1.029258371823942</v>
+        <v>1.015989113050974</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021926375345831</v>
+        <v>0.9888802101555751</v>
       </c>
       <c r="D8">
-        <v>1.029636104728316</v>
+        <v>1.024610851348531</v>
       </c>
       <c r="E8">
-        <v>1.022727496496734</v>
+        <v>0.9967189127653451</v>
       </c>
       <c r="F8">
-        <v>1.020575979404959</v>
+        <v>0.9659904091115289</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031511484313389</v>
+        <v>1.040283753100176</v>
       </c>
       <c r="J8">
-        <v>1.026994576420683</v>
+        <v>1.010815965764066</v>
       </c>
       <c r="K8">
-        <v>1.032385524872062</v>
+        <v>1.035467461143148</v>
       </c>
       <c r="L8">
-        <v>1.025496625443229</v>
+        <v>1.007943512661715</v>
       </c>
       <c r="M8">
-        <v>1.023351305377662</v>
+        <v>0.9776516578055733</v>
       </c>
       <c r="N8">
-        <v>1.028453026517124</v>
+        <v>1.012251440377662</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.019668753426308</v>
+        <v>0.9774720280594051</v>
       </c>
       <c r="D9">
-        <v>1.028564508175388</v>
+        <v>1.019333342882123</v>
       </c>
       <c r="E9">
-        <v>1.020812042057225</v>
+        <v>0.9876407435578903</v>
       </c>
       <c r="F9">
-        <v>1.016839378267776</v>
+        <v>0.9478451252982212</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031154358484228</v>
+        <v>1.037822316445862</v>
       </c>
       <c r="J9">
-        <v>1.025572237392057</v>
+        <v>1.003846180523196</v>
       </c>
       <c r="K9">
-        <v>1.031751533805329</v>
+        <v>1.032120348633761</v>
       </c>
       <c r="L9">
-        <v>1.024024974153781</v>
+        <v>1.00093757516937</v>
       </c>
       <c r="M9">
-        <v>1.020065754045933</v>
+        <v>0.9618451304280016</v>
       </c>
       <c r="N9">
-        <v>1.027028667603933</v>
+        <v>1.005271757242305</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.018163049409088</v>
+        <v>0.9694199827293516</v>
       </c>
       <c r="D10">
-        <v>1.027850851831494</v>
+        <v>1.015658926267371</v>
       </c>
       <c r="E10">
-        <v>1.019536527405738</v>
+        <v>0.9812707243268055</v>
       </c>
       <c r="F10">
-        <v>1.014346636514582</v>
+        <v>0.9349070460044012</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030910064015975</v>
+        <v>1.036039942450956</v>
       </c>
       <c r="J10">
-        <v>1.024620467346704</v>
+        <v>0.9989017027276753</v>
       </c>
       <c r="K10">
-        <v>1.031325821274979</v>
+        <v>1.029751094837627</v>
       </c>
       <c r="L10">
-        <v>1.023041998053098</v>
+        <v>0.9959865810250927</v>
       </c>
       <c r="M10">
-        <v>1.017871426868625</v>
+        <v>0.950560206464836</v>
       </c>
       <c r="N10">
-        <v>1.026075545935946</v>
+        <v>1.000320257721175</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.017510904588817</v>
+        <v>0.9658139411899449</v>
       </c>
       <c r="D11">
-        <v>1.027542023313583</v>
+        <v>1.014027546203788</v>
       </c>
       <c r="E11">
-        <v>1.018984559223466</v>
+        <v>0.9784276488256745</v>
       </c>
       <c r="F11">
-        <v>1.013266766523025</v>
+        <v>0.9290721073942534</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030802811017418</v>
+        <v>1.035231751654205</v>
       </c>
       <c r="J11">
-        <v>1.024207492941855</v>
+        <v>0.9966814524995345</v>
       </c>
       <c r="K11">
-        <v>1.031140767831423</v>
+        <v>1.028689684904559</v>
       </c>
       <c r="L11">
-        <v>1.022615909658112</v>
+        <v>0.993768186481802</v>
       </c>
       <c r="M11">
-        <v>1.016920243791751</v>
+        <v>0.9454681863481724</v>
       </c>
       <c r="N11">
-        <v>1.025661985060073</v>
+        <v>0.9980968544830444</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.01726864314521</v>
+        <v>0.9644552641837856</v>
       </c>
       <c r="D12">
-        <v>1.027427340442024</v>
+        <v>1.013415207406837</v>
       </c>
       <c r="E12">
-        <v>1.018779584238594</v>
+        <v>0.9773579667557201</v>
       </c>
       <c r="F12">
-        <v>1.012865572504695</v>
+        <v>0.9268665641961663</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030762751480388</v>
+        <v>1.034925809456109</v>
       </c>
       <c r="J12">
-        <v>1.02405396722269</v>
+        <v>0.9958440239519779</v>
       </c>
       <c r="K12">
-        <v>1.031071923672715</v>
+        <v>1.028289828574244</v>
       </c>
       <c r="L12">
-        <v>1.022457572918018</v>
+        <v>0.9929321998797384</v>
       </c>
       <c r="M12">
-        <v>1.016566771449789</v>
+        <v>0.9435431391906508</v>
       </c>
       <c r="N12">
-        <v>1.025508241316778</v>
+        <v>0.9972582366908956</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.017320610232215</v>
+        <v>0.9647475974200607</v>
       </c>
       <c r="D13">
-        <v>1.027451938937831</v>
+        <v>1.013546849819026</v>
       </c>
       <c r="E13">
-        <v>1.018823549783663</v>
+        <v>0.977588049673685</v>
       </c>
       <c r="F13">
-        <v>1.012951633827449</v>
+        <v>0.9273414450214879</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030771354385538</v>
+        <v>1.034991699740152</v>
       </c>
       <c r="J13">
-        <v>1.024086904842733</v>
+        <v>0.9960242453632715</v>
       </c>
       <c r="K13">
-        <v>1.031086695812963</v>
+        <v>1.028375857168192</v>
       </c>
       <c r="L13">
-        <v>1.022491539794956</v>
+        <v>0.9931120770558729</v>
       </c>
       <c r="M13">
-        <v>1.01664259984082</v>
+        <v>0.9439576388021342</v>
       </c>
       <c r="N13">
-        <v>1.025541225712019</v>
+        <v>0.997438714037265</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.017490879715002</v>
+        <v>0.9657020327671996</v>
       </c>
       <c r="D14">
-        <v>1.027532542976233</v>
+        <v>1.013977061975107</v>
       </c>
       <c r="E14">
-        <v>1.018967614896869</v>
+        <v>0.9783395122659156</v>
       </c>
       <c r="F14">
-        <v>1.013233605422003</v>
+        <v>0.9288905956234565</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030799504191106</v>
+        <v>1.035206581240079</v>
       </c>
       <c r="J14">
-        <v>1.024194805086146</v>
+        <v>0.9966124951156178</v>
       </c>
       <c r="K14">
-        <v>1.031135079332154</v>
+        <v>1.028656748560602</v>
       </c>
       <c r="L14">
-        <v>1.022602822894536</v>
+        <v>0.9936993326234219</v>
       </c>
       <c r="M14">
-        <v>1.016891028972161</v>
+        <v>0.9453097648334534</v>
       </c>
       <c r="N14">
-        <v>1.025649279186154</v>
+        <v>0.9980277991717326</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.017595784910684</v>
+        <v>0.9662875026854748</v>
       </c>
       <c r="D15">
-        <v>1.027582209771906</v>
+        <v>1.014241275753747</v>
       </c>
       <c r="E15">
-        <v>1.019056384862768</v>
+        <v>0.9788006777941473</v>
       </c>
       <c r="F15">
-        <v>1.013407326302947</v>
+        <v>0.9298399148224611</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030816818935021</v>
+        <v>1.035338206996096</v>
       </c>
       <c r="J15">
-        <v>1.024261268921065</v>
+        <v>0.996973222480136</v>
       </c>
       <c r="K15">
-        <v>1.031164875847183</v>
+        <v>1.028829064341985</v>
       </c>
       <c r="L15">
-        <v>1.022671378989599</v>
+        <v>0.9940595487774492</v>
       </c>
       <c r="M15">
-        <v>1.017044072880349</v>
+        <v>0.9461383078942704</v>
       </c>
       <c r="N15">
-        <v>1.025715837407342</v>
+        <v>0.9983890388104849</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.018206326548456</v>
+        <v>0.9696566802338357</v>
       </c>
       <c r="D16">
-        <v>1.027871351867707</v>
+        <v>1.015766319840082</v>
       </c>
       <c r="E16">
-        <v>1.019573166820676</v>
+        <v>0.9814575485922667</v>
       </c>
       <c r="F16">
-        <v>1.014418292819574</v>
+        <v>0.9352891226882672</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030917151045044</v>
+        <v>1.036092789537462</v>
       </c>
       <c r="J16">
-        <v>1.024647857095774</v>
+        <v>0.9990473154000672</v>
       </c>
       <c r="K16">
-        <v>1.03133808761101</v>
+        <v>1.029820766838006</v>
       </c>
       <c r="L16">
-        <v>1.023070266549458</v>
+        <v>0.9961321732058361</v>
       </c>
       <c r="M16">
-        <v>1.017934531599075</v>
+        <v>0.9508935878503125</v>
       </c>
       <c r="N16">
-        <v>1.026102974581602</v>
+        <v>1.000466077180264</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.018589258280126</v>
+        <v>0.9717372271186717</v>
       </c>
       <c r="D17">
-        <v>1.028052774717431</v>
+        <v>1.016711930013869</v>
       </c>
       <c r="E17">
-        <v>1.019897420852446</v>
+        <v>0.9831008220670527</v>
       </c>
       <c r="F17">
-        <v>1.015052307128846</v>
+        <v>0.9386428145590298</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030979692759064</v>
+        <v>1.036556186292349</v>
       </c>
       <c r="J17">
-        <v>1.024890125144328</v>
+        <v>1.00032656613056</v>
       </c>
       <c r="K17">
-        <v>1.031446547256959</v>
+        <v>1.030433148990344</v>
       </c>
       <c r="L17">
-        <v>1.023320356518564</v>
+        <v>0.9974117883344589</v>
       </c>
       <c r="M17">
-        <v>1.018492813769024</v>
+        <v>0.9538195651807496</v>
       </c>
       <c r="N17">
-        <v>1.026345586678573</v>
+        <v>1.001747144593526</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.018812600025284</v>
+        <v>0.9729393428810702</v>
       </c>
       <c r="D18">
-        <v>1.028158613780402</v>
+        <v>1.017259619386497</v>
       </c>
       <c r="E18">
-        <v>1.020086585378143</v>
+        <v>0.9840511972460625</v>
       </c>
       <c r="F18">
-        <v>1.015422069571934</v>
+        <v>0.9405767555552604</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031016030258534</v>
+        <v>1.03682298455607</v>
       </c>
       <c r="J18">
-        <v>1.0250313538681</v>
+        <v>1.001065143938045</v>
       </c>
       <c r="K18">
-        <v>1.031509740698463</v>
+        <v>1.030786934548778</v>
       </c>
       <c r="L18">
-        <v>1.023466186063758</v>
+        <v>0.9981510262840431</v>
       </c>
       <c r="M18">
-        <v>1.018818351867709</v>
+        <v>0.9555066064163206</v>
       </c>
       <c r="N18">
-        <v>1.026487015963333</v>
+        <v>1.002486771266214</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.018888751130427</v>
+        <v>0.9733473311992488</v>
       </c>
       <c r="D19">
-        <v>1.028194705209256</v>
+        <v>1.01744572005668</v>
       </c>
       <c r="E19">
-        <v>1.020151091134882</v>
+        <v>0.9843738993165795</v>
       </c>
       <c r="F19">
-        <v>1.015548141205737</v>
+        <v>0.9412325039855524</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031028396312874</v>
+        <v>1.03691337122034</v>
       </c>
       <c r="J19">
-        <v>1.025079495303101</v>
+        <v>1.001315716460286</v>
       </c>
       <c r="K19">
-        <v>1.031531276265104</v>
+        <v>1.030906996143874</v>
       </c>
       <c r="L19">
-        <v>1.023515902770692</v>
+        <v>0.9984018984034299</v>
       </c>
       <c r="M19">
-        <v>1.018929335449291</v>
+        <v>0.9560785924587336</v>
       </c>
       <c r="N19">
-        <v>1.026535225764693</v>
+        <v>1.002737699630177</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.018548174976512</v>
+        <v>0.9715151954807635</v>
       </c>
       <c r="D20">
-        <v>1.028033307872057</v>
+        <v>1.016610877347028</v>
       </c>
       <c r="E20">
-        <v>1.019862628089383</v>
+        <v>0.98292536028244</v>
       </c>
       <c r="F20">
-        <v>1.014984288348547</v>
+        <v>0.9382853146257749</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030972997314243</v>
+        <v>1.03650683141601</v>
       </c>
       <c r="J20">
-        <v>1.024864140575365</v>
+        <v>1.000190105103917</v>
       </c>
       <c r="K20">
-        <v>1.031434917719843</v>
+        <v>1.030367800385409</v>
       </c>
       <c r="L20">
-        <v>1.023293528755111</v>
+        <v>0.9972752415739807</v>
       </c>
       <c r="M20">
-        <v>1.018432925605443</v>
+        <v>0.9535076850015032</v>
       </c>
       <c r="N20">
-        <v>1.026319565208542</v>
+        <v>1.001610489776573</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.01744074031722</v>
+        <v>0.9654215172480626</v>
       </c>
       <c r="D21">
-        <v>1.027508806262876</v>
+        <v>1.013850553758898</v>
       </c>
       <c r="E21">
-        <v>1.018925189917459</v>
+        <v>0.9781186093612114</v>
       </c>
       <c r="F21">
-        <v>1.013150574146714</v>
+        <v>0.9284354914967825</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03079122087453</v>
+        <v>1.035143464902837</v>
       </c>
       <c r="J21">
-        <v>1.024163034710331</v>
+        <v>0.9964396286339798</v>
       </c>
       <c r="K21">
-        <v>1.031120834542016</v>
+        <v>1.028574189950291</v>
       </c>
       <c r="L21">
-        <v>1.02257005469096</v>
+        <v>0.9935267376934181</v>
       </c>
       <c r="M21">
-        <v>1.016817877271399</v>
+        <v>0.9449125500100988</v>
       </c>
       <c r="N21">
-        <v>1.025617463692762</v>
+        <v>0.997854687199863</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.016744302289714</v>
+        <v>0.9614781694949385</v>
       </c>
       <c r="D22">
-        <v>1.027179204296788</v>
+        <v>1.012077987796062</v>
       </c>
       <c r="E22">
-        <v>1.018336077824564</v>
+        <v>0.9750170009429684</v>
       </c>
       <c r="F22">
-        <v>1.011997165721287</v>
+        <v>0.9220196713538784</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03067565225158</v>
+        <v>1.034252871142684</v>
       </c>
       <c r="J22">
-        <v>1.023721477026349</v>
+        <v>0.9940074374981033</v>
       </c>
       <c r="K22">
-        <v>1.030922738832308</v>
+        <v>1.027413915388674</v>
       </c>
       <c r="L22">
-        <v>1.022114781064001</v>
+        <v>0.9911001711937114</v>
       </c>
       <c r="M22">
-        <v>1.015801499828277</v>
+        <v>0.9393121689309356</v>
       </c>
       <c r="N22">
-        <v>1.025175278946221</v>
+        <v>0.9954190420735971</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.017113511818647</v>
+        <v>0.9635796948451741</v>
       </c>
       <c r="D23">
-        <v>1.027353915692083</v>
+        <v>1.013021281714307</v>
       </c>
       <c r="E23">
-        <v>1.018648349642043</v>
+        <v>0.9766690731203324</v>
       </c>
       <c r="F23">
-        <v>1.012608657369169</v>
+        <v>0.9254431296572739</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030737038513435</v>
+        <v>1.034728255949738</v>
       </c>
       <c r="J23">
-        <v>1.023955625918058</v>
+        <v>0.995304111297984</v>
       </c>
       <c r="K23">
-        <v>1.031027811583276</v>
+        <v>1.028032181540106</v>
       </c>
       <c r="L23">
-        <v>1.022356167986658</v>
+        <v>0.9923934292311118</v>
       </c>
       <c r="M23">
-        <v>1.016340391344133</v>
+        <v>0.9423006544082539</v>
       </c>
       <c r="N23">
-        <v>1.025409760356214</v>
+        <v>0.9967175572990044</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.018566738801646</v>
+        <v>0.9716155572543796</v>
       </c>
       <c r="D24">
-        <v>1.028042104045498</v>
+        <v>1.016656550631524</v>
       </c>
       <c r="E24">
-        <v>1.019878349340357</v>
+        <v>0.9830046689330392</v>
       </c>
       <c r="F24">
-        <v>1.015015023252148</v>
+        <v>0.9384469218557301</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030976023136355</v>
+        <v>1.036529143535131</v>
       </c>
       <c r="J24">
-        <v>1.024875882137098</v>
+        <v>1.000251789355136</v>
       </c>
       <c r="K24">
-        <v>1.031440172821051</v>
+        <v>1.030397339115049</v>
       </c>
       <c r="L24">
-        <v>1.023305651201454</v>
+        <v>0.997336963185198</v>
       </c>
       <c r="M24">
-        <v>1.018459986791335</v>
+        <v>0.9536486706937525</v>
       </c>
       <c r="N24">
-        <v>1.02633132344464</v>
+        <v>1.001672261626504</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.020252509340196</v>
+        <v>0.9804958135269163</v>
       </c>
       <c r="D25">
-        <v>1.028841416721748</v>
+        <v>1.020724179293634</v>
       </c>
       <c r="E25">
-        <v>1.021306976334835</v>
+        <v>0.9900407676788739</v>
       </c>
       <c r="F25">
-        <v>1.017805645294668</v>
+        <v>0.9526741992675697</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031247779612939</v>
+        <v>1.038482690065809</v>
       </c>
       <c r="J25">
-        <v>1.025940568734609</v>
+        <v>1.005697884382887</v>
       </c>
       <c r="K25">
-        <v>1.031915976648548</v>
+        <v>1.033009077235566</v>
       </c>
       <c r="L25">
-        <v>1.024405760686095</v>
+        <v>1.002795680700065</v>
       </c>
       <c r="M25">
-        <v>1.020915820721069</v>
+        <v>0.9660544812607824</v>
       </c>
       <c r="N25">
-        <v>1.02739752201924</v>
+        <v>1.00712609073387</v>
       </c>
     </row>
   </sheetData>
